--- a/Classwork/3/Activities/02-Stu_LineAndBar/Unsolved/StudentGrades_Unsolved.xlsx
+++ b/Classwork/3/Activities/02-Stu_LineAndBar/Unsolved/StudentGrades_Unsolved.xlsx
@@ -1,30 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\03-Stu_LineAndBar\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meria\Desktop\Rutgers\RutgersBootCamp\Classwork\3\Activities\02-Stu_LineAndBar\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A06B14-B9F0-4639-9511-A1B7906DD5B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14070"/>
+    <workbookView xWindow="12650" yWindow="250" windowWidth="12640" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tad Ethridge</t>
   </si>
@@ -103,11 +117,14 @@
   <si>
     <t>Jun</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -133,16 +150,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,6 +296,7245 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[StudentGrades_Unsolved.xlsx]Sheet2!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="534550432"/>
+        <c:axId val="534547104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="534550432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534547104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534547104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534550432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C760-4E8F-9D6D-9290D577EEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="258987104"/>
+        <c:axId val="258990848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="258987104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258990848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258990848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258987104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13C1-47D6-AA4C-A32612000F92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="233002304"/>
+        <c:axId val="233199888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="233002304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233199888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="233199888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233002304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grades</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Over Semester</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B14-4807-9ABA-4B0E6F5819EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B14-4807-9ABA-4B0E6F5819EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B14-4807-9ABA-4B0E6F5819EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B14-4807-9ABA-4B0E6F5819EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="538462528"/>
+        <c:axId val="538466688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="538462528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538466688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538466688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538462528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5191239456113116E-2"/>
+          <c:y val="0.14614583333333334"/>
+          <c:w val="0.89446836366356819"/>
+          <c:h val="0.62671751968503941"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1F6-47B8-803A-D74D9A38C9A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="258987104"/>
+        <c:axId val="258990848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="258987104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258990848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258990848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="258987104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8604-4817-A9D6-F78917FB0A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8604-4817-A9D6-F78917FB0A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8604-4817-A9D6-F78917FB0A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8604-4817-A9D6-F78917FB0A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>63.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.166666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8604-4817-A9D6-F78917FB0A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8604-4817-A9D6-F78917FB0A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="267327680"/>
+        <c:axId val="267323520"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8604-4817-A9D6-F78917FB0A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="666269424"/>
+        <c:axId val="666281072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="267327680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267323520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="267323520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267327680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="666281072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666269424"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="666269424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="666281072"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D3F900-B660-46C9-8640-2A2D0E6DDAD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FBBC27-F474-49C1-B5A6-BC6BA7D71A7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215154</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>452718</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF8EB76-2581-4745-9C05-AE33EEAA8551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>467285</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604557</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>49865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAFCAAC-86A4-4189-B0A8-861C05F24494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E74EEC-B90E-4F92-B99A-A61DB1C046B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD291CE2-6294-4FA0-BEF6-1F4764006A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Meriane Wittig Franco" refreshedDate="44226.467969212965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{7CA92A55-4976-4C1E-BF92-ED8079EC9B88}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:G21" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Jan" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="97"/>
+    </cacheField>
+    <cacheField name="Feb" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="43" maxValue="99"/>
+    </cacheField>
+    <cacheField name="Mar" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Apr" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30" maxValue="100"/>
+    </cacheField>
+    <cacheField name="May" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="33" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Jun" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="100"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <n v="64"/>
+    <n v="70"/>
+    <n v="65"/>
+    <n v="64"/>
+    <n v="56"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="66"/>
+    <n v="62"/>
+    <n v="67"/>
+    <n v="76"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <n v="71"/>
+    <n v="76"/>
+    <n v="77"/>
+    <n v="82"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="99"/>
+    <n v="93"/>
+    <n v="100"/>
+    <n v="94"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="85"/>
+    <n v="91"/>
+    <n v="94"/>
+    <n v="91"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="61"/>
+    <n v="62"/>
+    <n v="65"/>
+    <n v="73"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="45"/>
+    <n v="48"/>
+    <n v="44"/>
+    <n v="34"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="64"/>
+    <n v="60"/>
+    <n v="52"/>
+    <n v="48"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="85"/>
+    <n v="80"/>
+    <n v="90"/>
+    <n v="88"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="97"/>
+    <n v="100"/>
+    <n v="95"/>
+    <n v="100"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="61"/>
+    <n v="71"/>
+    <n v="77"/>
+    <n v="81"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="60"/>
+    <n v="50"/>
+    <n v="58"/>
+    <n v="56"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="57"/>
+    <n v="52"/>
+    <n v="51"/>
+    <n v="49"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="46"/>
+    <n v="44"/>
+    <n v="40"/>
+    <n v="39"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="85"/>
+    <n v="90"/>
+    <n v="85"/>
+    <n v="82"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <n v="65"/>
+    <n v="56"/>
+    <n v="66"/>
+    <n v="73"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="69"/>
+    <n v="61"/>
+    <n v="62"/>
+    <n v="64"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="48"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="50"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="98"/>
+    <n v="100"/>
+    <n v="95"/>
+    <n v="100"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="43"/>
+    <n v="35"/>
+    <n v="30"/>
+    <n v="33"/>
+    <n v="27"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE628E3D-9FF9-4068-8FEE-761CC888545A}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,20 +7833,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBC3D10-8DAD-47A7-94D4-61B28FCAEA56}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="12" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -488,12 +7969,15 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="12">
         <v>64</v>
       </c>
       <c r="C2" s="2">
@@ -511,17 +7995,20 @@
       <c r="G2" s="2">
         <v>63</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>63.666666666666664</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>57</v>
       </c>
       <c r="C3" s="2">
@@ -539,17 +8026,20 @@
       <c r="G3" s="2">
         <v>67</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H20" si="0">AVERAGE(B3:G3)</f>
+        <v>65.833333333333329</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="12">
         <v>63</v>
       </c>
       <c r="C4" s="2">
@@ -567,17 +8057,20 @@
       <c r="G4" s="2">
         <v>85</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>75.666666666666671</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>97</v>
       </c>
       <c r="C5" s="2">
@@ -595,17 +8088,20 @@
       <c r="G5" s="2">
         <v>99</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>92</v>
       </c>
       <c r="C6" s="2">
@@ -623,17 +8119,20 @@
       <c r="G6" s="2">
         <v>84</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>89.5</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>71</v>
       </c>
       <c r="C7" s="2">
@@ -651,17 +8150,20 @@
       <c r="G7" s="2">
         <v>79</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>51</v>
       </c>
       <c r="C8" s="2">
@@ -679,17 +8181,20 @@
       <c r="G8" s="2">
         <v>25</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>41.166666666666664</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>72</v>
       </c>
       <c r="C9" s="2">
@@ -707,17 +8212,20 @@
       <c r="G9" s="2">
         <v>52</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>92</v>
       </c>
       <c r="C10" s="2">
@@ -735,17 +8243,20 @@
       <c r="G10" s="2">
         <v>98</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>88.833333333333329</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>93</v>
       </c>
       <c r="C11" s="2">
@@ -763,17 +8274,20 @@
       <c r="G11" s="2">
         <v>100</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="12">
         <v>71</v>
       </c>
       <c r="C12" s="2">
@@ -791,17 +8305,20 @@
       <c r="G12" s="2">
         <v>81</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>73.666666666666671</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>58</v>
       </c>
       <c r="C13" s="2">
@@ -819,17 +8336,20 @@
       <c r="G13" s="2">
         <v>64</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>57.666666666666664</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <v>56</v>
       </c>
       <c r="C14" s="2">
@@ -847,17 +8367,20 @@
       <c r="G14" s="2">
         <v>50</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="12">
         <v>50</v>
       </c>
       <c r="C15" s="2">
@@ -875,17 +8398,20 @@
       <c r="G15" s="2">
         <v>33</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="12">
         <v>92</v>
       </c>
       <c r="C16" s="2">
@@ -903,17 +8429,20 @@
       <c r="G16" s="2">
         <v>75</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>84.833333333333329</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="12">
         <v>55</v>
       </c>
       <c r="C17" s="2">
@@ -931,17 +8460,20 @@
       <c r="G17" s="2">
         <v>73</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>64.666666666666671</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="12">
         <v>61</v>
       </c>
       <c r="C18" s="2">
@@ -959,17 +8491,20 @@
       <c r="G18" s="2">
         <v>70</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="12">
         <v>53</v>
       </c>
       <c r="C19" s="2">
@@ -987,17 +8522,20 @@
       <c r="G19" s="2">
         <v>53</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>50.333333333333336</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="12">
         <v>90</v>
       </c>
       <c r="C20" s="2">
@@ -1015,17 +8553,20 @@
       <c r="G20" s="2">
         <v>100</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>97.166666666666671</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="12">
         <v>50</v>
       </c>
       <c r="C21" s="2">
@@ -1051,5 +8592,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>